--- a/BackTest/2019-10-27 BackTest WAX.xlsx
+++ b/BackTest/2019-10-27 BackTest WAX.xlsx
@@ -451,17 +451,13 @@
         <v>28.93333333333334</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>29.16666666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="K3" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>29.43333333333334</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>29.56666666666668</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="K5" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>29.50000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>29.36666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,22 +661,14 @@
         <v>29.30000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -748,22 +696,14 @@
         <v>29.23333333333334</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -791,22 +731,14 @@
         <v>29.16666666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>29</v>
-      </c>
-      <c r="K10" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -834,22 +766,14 @@
         <v>29.13333333333334</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -877,22 +801,14 @@
         <v>29.13333333333334</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -920,22 +836,14 @@
         <v>29.20000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -963,22 +871,14 @@
         <v>29.16666666666668</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1006,22 +906,14 @@
         <v>29.13333333333334</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>29</v>
-      </c>
-      <c r="K15" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1049,22 +941,14 @@
         <v>29.13333333333334</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1092,22 +976,14 @@
         <v>29.13333333333334</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1135,22 +1011,14 @@
         <v>29.20000000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1178,22 +1046,14 @@
         <v>29.23333333333334</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K19" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1221,22 +1081,14 @@
         <v>29.26666666666668</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K20" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1264,22 +1116,14 @@
         <v>29.30000000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K21" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1307,22 +1151,14 @@
         <v>29.30000000000001</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K22" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1350,22 +1186,14 @@
         <v>29.33333333333334</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K23" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1393,22 +1221,14 @@
         <v>29.36666666666667</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K24" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1436,22 +1256,14 @@
         <v>29.4</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K25" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1479,22 +1291,14 @@
         <v>29.4</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K26" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1522,22 +1326,14 @@
         <v>29.4</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K27" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1565,22 +1361,14 @@
         <v>29.46666666666666</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K28" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1608,22 +1396,14 @@
         <v>29.66666666666666</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="K29" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1651,22 +1431,14 @@
         <v>30.16666666666666</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="K30" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1700,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1741,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1782,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1823,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1864,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1902,17 +1644,11 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1943,17 +1679,11 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1984,19 +1714,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>1.070342465753425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -2025,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -4997,13 +4721,17 @@
         <v>30.63333333333328</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="K124" t="n">
+        <v>30.8</v>
+      </c>
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
@@ -5032,14 +4760,22 @@
         <v>30.66666666666661</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="K125" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5067,14 +4803,22 @@
         <v>30.59999999999994</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="K126" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5108,8 +4852,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5143,8 +4893,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5178,8 +4934,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5213,8 +4975,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5248,8 +5016,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5283,8 +5057,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5318,8 +5098,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5353,8 +5139,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5388,8 +5180,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5423,8 +5221,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5458,8 +5262,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5493,8 +5303,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5528,8 +5344,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5563,8 +5385,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5598,8 +5426,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5633,8 +5467,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5668,8 +5508,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5703,8 +5549,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5738,8 +5590,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5773,8 +5631,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5808,8 +5672,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5843,8 +5713,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5878,8 +5754,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5913,8 +5795,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5948,8 +5836,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5983,8 +5877,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6018,8 +5918,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6053,8 +5959,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6088,8 +6000,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6123,8 +6041,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6158,8 +6082,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6193,8 +6123,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6228,8 +6164,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6263,8 +6205,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6298,8 +6246,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6333,8 +6287,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6368,8 +6328,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6403,8 +6369,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6438,8 +6410,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6473,8 +6451,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6508,8 +6492,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6543,8 +6533,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6578,8 +6574,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6613,8 +6615,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6648,8 +6656,14 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6683,8 +6697,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6718,8 +6738,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6753,8 +6779,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6788,8 +6820,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6823,8 +6861,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6858,8 +6902,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6893,8 +6943,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6928,8 +6984,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6963,8 +7025,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6998,8 +7066,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7033,8 +7107,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7068,8 +7148,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7103,8 +7189,14 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7138,8 +7230,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7173,8 +7271,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7208,8 +7312,14 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7243,8 +7353,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7278,8 +7394,14 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7313,8 +7435,14 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7348,8 +7476,14 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7383,8 +7517,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7418,8 +7558,14 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7453,8 +7599,14 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7488,8 +7640,14 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7523,8 +7681,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7558,8 +7722,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7593,8 +7763,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7628,8 +7804,14 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7663,8 +7845,14 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7698,8 +7886,14 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7733,8 +7927,14 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7768,8 +7968,14 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7803,8 +8009,14 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7838,8 +8050,14 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7873,8 +8091,14 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7908,8 +8132,14 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7943,8 +8173,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7978,8 +8214,14 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8013,8 +8255,14 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8048,8 +8296,14 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8083,8 +8337,14 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8118,8 +8378,14 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8153,8 +8419,14 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8188,8 +8460,14 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8223,8 +8501,14 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8258,8 +8542,14 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8293,8 +8583,14 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8328,8 +8624,14 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8363,8 +8665,14 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8398,8 +8706,14 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8433,8 +8747,14 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8468,8 +8788,14 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8503,8 +8829,14 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8538,8 +8870,14 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8573,8 +8911,14 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8608,8 +8952,14 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8643,8 +8993,14 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8678,8 +9034,14 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8713,8 +9075,14 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8748,8 +9116,14 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8783,8 +9157,14 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8818,8 +9198,14 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8853,8 +9239,14 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8888,8 +9280,14 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8923,8 +9321,14 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8958,8 +9362,14 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -8993,8 +9403,14 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9028,8 +9444,14 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9063,8 +9485,14 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9098,8 +9526,14 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9133,8 +9567,14 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9168,8 +9608,14 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9203,8 +9649,14 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9238,8 +9690,14 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9273,8 +9731,14 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9308,8 +9772,14 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9343,8 +9813,14 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9378,8 +9854,14 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9413,8 +9895,14 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9448,8 +9936,14 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9483,8 +9977,14 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9518,8 +10018,14 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9553,8 +10059,14 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9588,8 +10100,14 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9623,8 +10141,14 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9658,8 +10182,14 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9693,8 +10223,14 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9728,8 +10264,14 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9763,8 +10305,14 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9798,8 +10346,14 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9833,8 +10387,14 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9868,8 +10428,14 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9903,8 +10469,14 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9938,8 +10510,14 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -9973,8 +10551,14 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10008,8 +10592,14 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10043,8 +10633,14 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10078,8 +10674,14 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10113,8 +10715,14 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10148,8 +10756,14 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10183,8 +10797,14 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10218,8 +10838,14 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10253,8 +10879,14 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10288,8 +10920,14 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10323,8 +10961,14 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10358,8 +11002,14 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10393,8 +11043,14 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10428,8 +11084,14 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10463,8 +11125,14 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10498,8 +11166,14 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10533,8 +11207,14 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10568,8 +11248,14 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10603,8 +11289,14 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10638,8 +11330,14 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10673,8 +11371,14 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10708,8 +11412,14 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10743,8 +11453,14 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10778,8 +11494,14 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -10813,8 +11535,14 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -10848,8 +11576,14 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -10883,8 +11617,14 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -10918,8 +11658,14 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -10953,8 +11699,14 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -10988,8 +11740,14 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11023,8 +11781,14 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11052,14 +11816,22 @@
         <v>30.06666666666661</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K297" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11087,14 +11859,22 @@
         <v>30.03333333333327</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="K298" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11122,14 +11902,22 @@
         <v>30.26666666666661</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K299" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11157,14 +11945,22 @@
         <v>30.03333333333327</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K300" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11192,14 +11988,22 @@
         <v>30.03333333333327</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K301" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11227,14 +12031,22 @@
         <v>29.79999999999994</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K302" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11262,14 +12074,22 @@
         <v>29.69999999999994</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K303" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11297,14 +12117,22 @@
         <v>29.69999999999994</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="K304" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11332,14 +12160,22 @@
         <v>29.83333333333327</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K305" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11367,14 +12203,22 @@
         <v>29.99999999999993</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K306" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11408,8 +12252,14 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11443,8 +12293,14 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11478,8 +12334,14 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11513,8 +12375,14 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11548,8 +12416,14 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11583,8 +12457,14 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11618,8 +12498,14 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11653,8 +12539,14 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -11688,8 +12580,14 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -11723,8 +12621,14 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -11758,8 +12662,14 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -11793,8 +12703,14 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -11828,8 +12744,14 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -11863,8 +12785,14 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -11898,8 +12826,14 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -11933,8 +12867,14 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -11962,14 +12902,22 @@
         <v>29.49999999999993</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
       </c>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K323" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -12003,8 +12951,14 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12038,8 +12992,14 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12073,8 +13033,14 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12108,8 +13074,14 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12143,8 +13115,14 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12178,8 +13156,14 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12213,8 +13197,14 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12248,8 +13238,14 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12283,8 +13279,14 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12318,8 +13320,14 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12353,8 +13361,14 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12388,8 +13402,14 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12423,8 +13443,14 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12458,8 +13484,14 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -12493,8 +13525,14 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -12528,8 +13566,14 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -12563,8 +13607,14 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -12598,8 +13648,14 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -12633,8 +13689,14 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -12668,8 +13730,14 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -12703,8 +13771,14 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -12738,8 +13812,14 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -12773,8 +13853,14 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -12808,8 +13894,14 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -12843,8 +13935,14 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -12878,8 +13976,14 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -12907,18 +14011,20 @@
         <v>28.99999999999993</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
       </c>
-      <c r="J350" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="L350" t="inlineStr"/>
+        <v>30.8</v>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -12946,20 +14052,18 @@
         <v>28.89999999999993</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
       </c>
-      <c r="J351" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="n">
-        <v>28.9</v>
+        <v>30.8</v>
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M351" t="n">
@@ -12989,20 +14093,18 @@
         <v>28.93333333333327</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
       </c>
-      <c r="J352" t="n">
-        <v>29</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="n">
-        <v>28.9</v>
+        <v>30.8</v>
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M352" t="n">
@@ -13032,20 +14134,18 @@
         <v>28.99999999999993</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
       </c>
-      <c r="J353" t="n">
-        <v>29</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="n">
-        <v>28.9</v>
+        <v>30.8</v>
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M353" t="n">
@@ -13075,16 +14175,14 @@
         <v>29.0666666666666</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
       </c>
-      <c r="J354" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="n">
-        <v>28.9</v>
+        <v>30.8</v>
       </c>
       <c r="L354" t="inlineStr">
         <is>
@@ -13118,16 +14216,14 @@
         <v>29.1666666666666</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
       </c>
-      <c r="J355" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="n">
-        <v>28.9</v>
+        <v>30.8</v>
       </c>
       <c r="L355" t="inlineStr">
         <is>
@@ -13161,16 +14257,14 @@
         <v>29.19999999999993</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
       </c>
-      <c r="J356" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="n">
-        <v>28.9</v>
+        <v>30.8</v>
       </c>
       <c r="L356" t="inlineStr">
         <is>
@@ -13204,16 +14298,14 @@
         <v>29.23333333333326</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
       </c>
-      <c r="J357" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="n">
-        <v>28.9</v>
+        <v>30.8</v>
       </c>
       <c r="L357" t="inlineStr">
         <is>
@@ -13247,16 +14339,14 @@
         <v>29.1666666666666</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
       </c>
-      <c r="J358" t="n">
-        <v>29.2</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="n">
-        <v>28.9</v>
+        <v>30.8</v>
       </c>
       <c r="L358" t="inlineStr">
         <is>
@@ -13290,16 +14380,14 @@
         <v>29.13333333333327</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
       </c>
-      <c r="J359" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="n">
-        <v>28.9</v>
+        <v>30.8</v>
       </c>
       <c r="L359" t="inlineStr">
         <is>
@@ -13333,16 +14421,14 @@
         <v>29.09999999999993</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
       </c>
-      <c r="J360" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="n">
-        <v>28.9</v>
+        <v>30.8</v>
       </c>
       <c r="L360" t="inlineStr">
         <is>
@@ -13376,16 +14462,14 @@
         <v>29.13333333333327</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
       </c>
-      <c r="J361" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="n">
-        <v>28.9</v>
+        <v>30.8</v>
       </c>
       <c r="L361" t="inlineStr">
         <is>
@@ -13419,16 +14503,14 @@
         <v>29.19999999999993</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
       </c>
-      <c r="J362" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="n">
-        <v>28.9</v>
+        <v>30.8</v>
       </c>
       <c r="L362" t="inlineStr">
         <is>
@@ -13462,16 +14544,14 @@
         <v>29.33333333333327</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
       </c>
-      <c r="J363" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="n">
-        <v>28.9</v>
+        <v>30.8</v>
       </c>
       <c r="L363" t="inlineStr">
         <is>
@@ -13505,16 +14585,14 @@
         <v>29.43333333333327</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
       </c>
-      <c r="J364" t="n">
-        <v>29.5</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="n">
-        <v>28.9</v>
+        <v>30.8</v>
       </c>
       <c r="L364" t="inlineStr">
         <is>
@@ -13548,16 +14626,14 @@
         <v>29.53333333333327</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
       </c>
-      <c r="J365" t="n">
-        <v>29.6</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="n">
-        <v>28.9</v>
+        <v>30.8</v>
       </c>
       <c r="L365" t="inlineStr">
         <is>
@@ -13591,16 +14667,14 @@
         <v>29.63333333333327</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
       </c>
-      <c r="J366" t="n">
-        <v>29.8</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="n">
-        <v>28.9</v>
+        <v>30.8</v>
       </c>
       <c r="L366" t="inlineStr">
         <is>
@@ -13641,7 +14715,7 @@
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="n">
-        <v>28.9</v>
+        <v>30.8</v>
       </c>
       <c r="L367" t="inlineStr">
         <is>
@@ -13682,7 +14756,7 @@
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="n">
-        <v>28.9</v>
+        <v>30.8</v>
       </c>
       <c r="L368" t="inlineStr">
         <is>
@@ -13723,7 +14797,7 @@
       </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="n">
-        <v>28.9</v>
+        <v>30.8</v>
       </c>
       <c r="L369" t="inlineStr">
         <is>
@@ -13764,7 +14838,7 @@
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="n">
-        <v>28.9</v>
+        <v>30.8</v>
       </c>
       <c r="L370" t="inlineStr">
         <is>
@@ -13805,7 +14879,7 @@
       </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="n">
-        <v>28.9</v>
+        <v>30.8</v>
       </c>
       <c r="L371" t="inlineStr">
         <is>
@@ -13846,7 +14920,7 @@
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="n">
-        <v>28.9</v>
+        <v>30.8</v>
       </c>
       <c r="L372" t="inlineStr">
         <is>
@@ -13887,7 +14961,7 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="n">
-        <v>28.9</v>
+        <v>30.8</v>
       </c>
       <c r="L373" t="inlineStr">
         <is>
@@ -13928,7 +15002,7 @@
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="n">
-        <v>28.9</v>
+        <v>30.8</v>
       </c>
       <c r="L374" t="inlineStr">
         <is>
@@ -13969,7 +15043,7 @@
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="n">
-        <v>28.9</v>
+        <v>30.8</v>
       </c>
       <c r="L375" t="inlineStr">
         <is>
@@ -14010,7 +15084,7 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="n">
-        <v>28.9</v>
+        <v>30.8</v>
       </c>
       <c r="L376" t="inlineStr">
         <is>
@@ -14051,7 +15125,7 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="n">
-        <v>28.9</v>
+        <v>30.8</v>
       </c>
       <c r="L377" t="inlineStr">
         <is>
@@ -14092,7 +15166,7 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="n">
-        <v>28.9</v>
+        <v>30.8</v>
       </c>
       <c r="L378" t="inlineStr">
         <is>
@@ -14133,7 +15207,7 @@
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="n">
-        <v>28.9</v>
+        <v>30.8</v>
       </c>
       <c r="L379" t="inlineStr">
         <is>
@@ -14174,7 +15248,7 @@
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="n">
-        <v>28.9</v>
+        <v>30.8</v>
       </c>
       <c r="L380" t="inlineStr">
         <is>
@@ -14215,7 +15289,7 @@
       </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="n">
-        <v>28.9</v>
+        <v>30.8</v>
       </c>
       <c r="L381" t="inlineStr">
         <is>
@@ -14256,7 +15330,7 @@
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="n">
-        <v>28.9</v>
+        <v>30.8</v>
       </c>
       <c r="L382" t="inlineStr">
         <is>
@@ -14297,7 +15371,7 @@
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="n">
-        <v>28.9</v>
+        <v>30.8</v>
       </c>
       <c r="L383" t="inlineStr">
         <is>
@@ -14338,7 +15412,7 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="n">
-        <v>28.9</v>
+        <v>30.8</v>
       </c>
       <c r="L384" t="inlineStr">
         <is>
@@ -14379,7 +15453,7 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="n">
-        <v>28.9</v>
+        <v>30.8</v>
       </c>
       <c r="L385" t="inlineStr">
         <is>
@@ -14420,7 +15494,7 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="n">
-        <v>28.9</v>
+        <v>30.8</v>
       </c>
       <c r="L386" t="inlineStr">
         <is>
@@ -14461,7 +15535,7 @@
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="n">
-        <v>28.9</v>
+        <v>30.8</v>
       </c>
       <c r="L387" t="inlineStr">
         <is>

--- a/BackTest/2019-10-27 BackTest WAX.xlsx
+++ b/BackTest/2019-10-27 BackTest WAX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1210,14 +1210,10 @@
         <v>33268.04029999999</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="J25" t="n">
-        <v>27.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
@@ -1247,19 +1243,11 @@
         <v>33268.04029999999</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="J26" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1288,19 +1276,11 @@
         <v>33268.04029999999</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="J27" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1461,14 +1441,10 @@
         <v>32859.80909999999</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="J32" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
@@ -1501,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1540,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1642,14 +1606,10 @@
         <v>46106.08329999999</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="J37" t="n">
-        <v>28.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
@@ -1679,19 +1639,11 @@
         <v>56106.08329999999</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="J38" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1723,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1891,14 +1837,10 @@
         <v>76430.15400000001</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="J44" t="n">
-        <v>28.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
@@ -1928,1774 +1870,1578 @@
         <v>76430.15400000001</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
         <v>29</v>
       </c>
-      <c r="J45" t="n">
+      <c r="C46" t="n">
+        <v>29</v>
+      </c>
+      <c r="D46" t="n">
+        <v>29</v>
+      </c>
+      <c r="E46" t="n">
+        <v>29</v>
+      </c>
+      <c r="F46" t="n">
+        <v>22627.4902</v>
+      </c>
+      <c r="G46" t="n">
+        <v>76430.15400000001</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>29</v>
+      </c>
+      <c r="C47" t="n">
+        <v>29</v>
+      </c>
+      <c r="D47" t="n">
+        <v>29</v>
+      </c>
+      <c r="E47" t="n">
+        <v>29</v>
+      </c>
+      <c r="F47" t="n">
+        <v>72169.64629999999</v>
+      </c>
+      <c r="G47" t="n">
+        <v>76430.15400000001</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>29</v>
+      </c>
+      <c r="C48" t="n">
+        <v>29</v>
+      </c>
+      <c r="D48" t="n">
+        <v>29</v>
+      </c>
+      <c r="E48" t="n">
+        <v>29</v>
+      </c>
+      <c r="F48" t="n">
+        <v>6376.535</v>
+      </c>
+      <c r="G48" t="n">
+        <v>76430.15400000001</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>11106.9553</v>
+      </c>
+      <c r="G49" t="n">
+        <v>87537.10930000001</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>29</v>
+      </c>
+      <c r="F50" t="n">
+        <v>14911.1859</v>
+      </c>
+      <c r="G50" t="n">
+        <v>87537.10930000001</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C51" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D51" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E51" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1103</v>
+      </c>
+      <c r="G51" t="n">
+        <v>88640.10930000001</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C52" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D52" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E52" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1629.0017</v>
+      </c>
+      <c r="G52" t="n">
+        <v>88640.10930000001</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C53" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D53" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E53" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F53" t="n">
+        <v>5014.7781</v>
+      </c>
+      <c r="G53" t="n">
+        <v>88640.10930000001</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C54" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D54" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E54" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F54" t="n">
+        <v>5823.6774</v>
+      </c>
+      <c r="G54" t="n">
+        <v>88640.10930000001</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C55" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D55" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E55" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F55" t="n">
+        <v>79579.33440000001</v>
+      </c>
+      <c r="G55" t="n">
+        <v>88640.10930000001</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="E56" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="G56" t="n">
+        <v>88620.15930000001</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="E57" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F57" t="n">
+        <v>4900.6341</v>
+      </c>
+      <c r="G57" t="n">
+        <v>88620.15930000001</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>29</v>
+      </c>
+      <c r="C58" t="n">
+        <v>29</v>
+      </c>
+      <c r="D58" t="n">
+        <v>29</v>
+      </c>
+      <c r="E58" t="n">
+        <v>29</v>
+      </c>
+      <c r="F58" t="n">
+        <v>3210</v>
+      </c>
+      <c r="G58" t="n">
+        <v>85410.15930000001</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
         <v>28.8</v>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="C59" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="D59" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="E59" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2274.5342</v>
+      </c>
+      <c r="G59" t="n">
+        <v>83135.62510000002</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C60" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="D60" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E60" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="F60" t="n">
+        <v>38002.4813</v>
+      </c>
+      <c r="G60" t="n">
+        <v>83135.62510000002</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C61" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="D61" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E61" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F61" t="n">
+        <v>724.4178000000001</v>
+      </c>
+      <c r="G61" t="n">
+        <v>83860.04290000001</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C62" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D62" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="E62" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F62" t="n">
+        <v>48616.5807</v>
+      </c>
+      <c r="G62" t="n">
+        <v>132476.6236</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C63" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="E63" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F63" t="n">
+        <v>30735.2646</v>
+      </c>
+      <c r="G63" t="n">
+        <v>163211.8882</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="C64" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="E64" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F64" t="n">
+        <v>200</v>
+      </c>
+      <c r="G64" t="n">
+        <v>163211.8882</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C65" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D65" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E65" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F65" t="n">
+        <v>5602.0819</v>
+      </c>
+      <c r="G65" t="n">
+        <v>157609.8063</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C66" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="D66" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E66" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2810</v>
+      </c>
+      <c r="G66" t="n">
+        <v>154799.8063</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C67" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D67" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E67" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F67" t="n">
+        <v>70028.28808945</v>
+      </c>
+      <c r="G67" t="n">
+        <v>224828.09438945</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="E68" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F68" t="n">
+        <v>3616.564</v>
+      </c>
+      <c r="G68" t="n">
+        <v>221211.53038945</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J68" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K68" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
         <v>29</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C69" t="n">
         <v>29</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D69" t="n">
         <v>29</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E69" t="n">
         <v>29</v>
       </c>
-      <c r="F46" t="n">
-        <v>22627.4902</v>
-      </c>
-      <c r="G46" t="n">
-        <v>76430.15400000001</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>29</v>
-      </c>
-      <c r="J46" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K46" t="inlineStr">
+      <c r="F69" t="n">
+        <v>105.742</v>
+      </c>
+      <c r="G69" t="n">
+        <v>221105.78838945</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K69" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C70" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D70" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E70" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F70" t="n">
+        <v>697.0068</v>
+      </c>
+      <c r="G70" t="n">
+        <v>221802.79518945</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
         <v>29</v>
       </c>
-      <c r="C47" t="n">
+      <c r="J70" t="n">
         <v>29</v>
       </c>
-      <c r="D47" t="n">
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="D71" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="E71" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F71" t="n">
+        <v>5285.3829</v>
+      </c>
+      <c r="G71" t="n">
+        <v>216517.41228945</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J71" t="n">
         <v>29</v>
       </c>
-      <c r="E47" t="n">
-        <v>29</v>
-      </c>
-      <c r="F47" t="n">
-        <v>72169.64629999999</v>
-      </c>
-      <c r="G47" t="n">
-        <v>76430.15400000001</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>29</v>
-      </c>
-      <c r="J47" t="n">
-        <v>29</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>29</v>
-      </c>
-      <c r="C48" t="n">
-        <v>29</v>
-      </c>
-      <c r="D48" t="n">
-        <v>29</v>
-      </c>
-      <c r="E48" t="n">
-        <v>29</v>
-      </c>
-      <c r="F48" t="n">
-        <v>6376.535</v>
-      </c>
-      <c r="G48" t="n">
-        <v>76430.15400000001</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>29</v>
-      </c>
-      <c r="J48" t="n">
-        <v>29</v>
-      </c>
-      <c r="K48" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C72" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="D72" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E72" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F72" t="n">
+        <v>36.7123</v>
+      </c>
+      <c r="G72" t="n">
+        <v>216554.12458945</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
         <v>29.1</v>
       </c>
-      <c r="C49" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="D49" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="E49" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="F49" t="n">
-        <v>11106.9553</v>
-      </c>
-      <c r="G49" t="n">
-        <v>87537.10930000001</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
+      <c r="J72" t="n">
         <v>29</v>
       </c>
-      <c r="J49" t="n">
-        <v>29</v>
-      </c>
-      <c r="K49" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="C50" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="D50" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="E50" t="n">
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C73" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="D73" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E73" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F73" t="n">
+        <v>8029.876</v>
+      </c>
+      <c r="G73" t="n">
+        <v>216554.12458945</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J73" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
         <v>29</v>
       </c>
-      <c r="F50" t="n">
-        <v>14911.1859</v>
-      </c>
-      <c r="G50" t="n">
-        <v>87537.10930000001</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J50" t="n">
+      <c r="C74" t="n">
         <v>29</v>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="D74" t="n">
+        <v>29</v>
+      </c>
+      <c r="E74" t="n">
+        <v>29</v>
+      </c>
+      <c r="F74" t="n">
+        <v>294.258</v>
+      </c>
+      <c r="G74" t="n">
+        <v>216259.86658945</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J74" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C75" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="D75" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E75" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F75" t="n">
+        <v>171.23287671</v>
+      </c>
+      <c r="G75" t="n">
+        <v>216431.0994661601</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>29</v>
+      </c>
+      <c r="J75" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C76" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="D76" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E76" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F76" t="n">
+        <v>14811.0526</v>
+      </c>
+      <c r="G76" t="n">
+        <v>216431.0994661601</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C77" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="D77" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E77" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F77" t="n">
+        <v>17201.54232329</v>
+      </c>
+      <c r="G77" t="n">
+        <v>216431.0994661601</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J77" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C78" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D78" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E78" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F78" t="n">
+        <v>10</v>
+      </c>
+      <c r="G78" t="n">
+        <v>216441.0994661601</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J78" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C79" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D79" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E79" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F79" t="n">
+        <v>41958.2968</v>
+      </c>
+      <c r="G79" t="n">
+        <v>216441.0994661601</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J79" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C80" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D80" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E80" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F80" t="n">
+        <v>4241.5847</v>
+      </c>
+      <c r="G80" t="n">
+        <v>216441.0994661601</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J80" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C81" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D81" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E81" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F81" t="n">
+        <v>28899.7293</v>
+      </c>
+      <c r="G81" t="n">
+        <v>216441.0994661601</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J81" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C82" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D82" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E82" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F82" t="n">
+        <v>37459.6938</v>
+      </c>
+      <c r="G82" t="n">
+        <v>253900.7932661601</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J82" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C83" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D83" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E83" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F83" t="n">
+        <v>15451.238</v>
+      </c>
+      <c r="G83" t="n">
+        <v>253900.7932661601</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J83" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C84" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D84" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E84" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F84" t="n">
+        <v>18032.49591055</v>
+      </c>
+      <c r="G84" t="n">
+        <v>253900.7932661601</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J84" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C85" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D85" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E85" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F85" t="n">
+        <v>79403.19898945</v>
+      </c>
+      <c r="G85" t="n">
+        <v>253900.7932661601</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J85" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C86" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D86" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E86" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F86" t="n">
+        <v>176.13541055</v>
+      </c>
+      <c r="G86" t="n">
+        <v>253900.7932661601</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J86" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C87" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="D87" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="E87" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F87" t="n">
+        <v>60810</v>
+      </c>
+      <c r="G87" t="n">
+        <v>314710.7932661601</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="J87" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="C88" t="n">
+        <v>30</v>
+      </c>
+      <c r="D88" t="n">
+        <v>30</v>
+      </c>
+      <c r="E88" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F88" t="n">
+        <v>166928.2175</v>
+      </c>
+      <c r="G88" t="n">
+        <v>481639.0107661601</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="J88" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="K88" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="C51" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="D51" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="E51" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1103</v>
-      </c>
-      <c r="G51" t="n">
-        <v>88640.10930000001</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J51" t="n">
-        <v>29</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="C52" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="D52" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="E52" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1629.0017</v>
-      </c>
-      <c r="G52" t="n">
-        <v>88640.10930000001</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="J52" t="n">
-        <v>29</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="C53" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="D53" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="E53" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="F53" t="n">
-        <v>5014.7781</v>
-      </c>
-      <c r="G53" t="n">
-        <v>88640.10930000001</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="J53" t="n">
-        <v>29</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="C54" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="D54" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="E54" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="F54" t="n">
-        <v>5823.6774</v>
-      </c>
-      <c r="G54" t="n">
-        <v>88640.10930000001</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="J54" t="n">
-        <v>29</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="C55" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="D55" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="E55" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="F55" t="n">
-        <v>79579.33440000001</v>
-      </c>
-      <c r="G55" t="n">
-        <v>88640.10930000001</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="J55" t="n">
-        <v>29</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="C56" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="D56" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="E56" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="F56" t="n">
-        <v>19.95</v>
-      </c>
-      <c r="G56" t="n">
-        <v>88620.15930000001</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="J56" t="n">
-        <v>29</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="C57" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="D57" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="E57" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="F57" t="n">
-        <v>4900.6341</v>
-      </c>
-      <c r="G57" t="n">
-        <v>88620.15930000001</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J57" t="n">
-        <v>29</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>29</v>
-      </c>
-      <c r="C58" t="n">
-        <v>29</v>
-      </c>
-      <c r="D58" t="n">
-        <v>29</v>
-      </c>
-      <c r="E58" t="n">
-        <v>29</v>
-      </c>
-      <c r="F58" t="n">
-        <v>3210</v>
-      </c>
-      <c r="G58" t="n">
-        <v>85410.15930000001</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J58" t="n">
-        <v>29</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="C59" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="D59" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="E59" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2274.5342</v>
-      </c>
-      <c r="G59" t="n">
-        <v>83135.62510000002</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>29</v>
-      </c>
-      <c r="J59" t="n">
-        <v>29</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="C60" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="D60" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="E60" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="F60" t="n">
-        <v>38002.4813</v>
-      </c>
-      <c r="G60" t="n">
-        <v>83135.62510000002</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="J60" t="n">
-        <v>29</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="C61" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="D61" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="E61" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="F61" t="n">
-        <v>724.4178000000001</v>
-      </c>
-      <c r="G61" t="n">
-        <v>83860.04290000001</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="J61" t="n">
-        <v>29</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="C62" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="D62" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="E62" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="F62" t="n">
-        <v>48616.5807</v>
-      </c>
-      <c r="G62" t="n">
-        <v>132476.6236</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J62" t="n">
-        <v>29</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="C63" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="D63" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="E63" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="F63" t="n">
-        <v>30735.2646</v>
-      </c>
-      <c r="G63" t="n">
-        <v>163211.8882</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="J63" t="n">
-        <v>29</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="C64" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="D64" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="E64" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="F64" t="n">
-        <v>200</v>
-      </c>
-      <c r="G64" t="n">
-        <v>163211.8882</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J64" t="n">
-        <v>29</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="C65" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="D65" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="E65" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="F65" t="n">
-        <v>5602.0819</v>
-      </c>
-      <c r="G65" t="n">
-        <v>157609.8063</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>29</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="C66" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="D66" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="E66" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="F66" t="n">
-        <v>2810</v>
-      </c>
-      <c r="G66" t="n">
-        <v>154799.8063</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>29</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="C67" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="D67" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E67" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="F67" t="n">
-        <v>70028.28808945</v>
-      </c>
-      <c r="G67" t="n">
-        <v>224828.09438945</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J67" t="n">
-        <v>29</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="C68" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="D68" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="E68" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3616.564</v>
-      </c>
-      <c r="G68" t="n">
-        <v>221211.53038945</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="J68" t="n">
-        <v>29</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>29</v>
-      </c>
-      <c r="C69" t="n">
-        <v>29</v>
-      </c>
-      <c r="D69" t="n">
-        <v>29</v>
-      </c>
-      <c r="E69" t="n">
-        <v>29</v>
-      </c>
-      <c r="F69" t="n">
-        <v>105.742</v>
-      </c>
-      <c r="G69" t="n">
-        <v>221105.78838945</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>29</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="C70" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="D70" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="E70" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="F70" t="n">
-        <v>697.0068</v>
-      </c>
-      <c r="G70" t="n">
-        <v>221802.79518945</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="n">
-        <v>29</v>
-      </c>
-      <c r="J70" t="n">
-        <v>29</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="C71" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="D71" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="E71" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="F71" t="n">
-        <v>5285.3829</v>
-      </c>
-      <c r="G71" t="n">
-        <v>216517.41228945</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="J71" t="n">
-        <v>29</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="C72" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="D72" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="E72" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="F72" t="n">
-        <v>36.7123</v>
-      </c>
-      <c r="G72" t="n">
-        <v>216554.12458945</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J72" t="n">
-        <v>29</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="C73" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="D73" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="E73" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="F73" t="n">
-        <v>8029.876</v>
-      </c>
-      <c r="G73" t="n">
-        <v>216554.12458945</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J73" t="n">
-        <v>29</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>29</v>
-      </c>
-      <c r="C74" t="n">
-        <v>29</v>
-      </c>
-      <c r="D74" t="n">
-        <v>29</v>
-      </c>
-      <c r="E74" t="n">
-        <v>29</v>
-      </c>
-      <c r="F74" t="n">
-        <v>294.258</v>
-      </c>
-      <c r="G74" t="n">
-        <v>216259.86658945</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J74" t="n">
-        <v>29</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="C75" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="D75" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="E75" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="F75" t="n">
-        <v>171.23287671</v>
-      </c>
-      <c r="G75" t="n">
-        <v>216431.0994661601</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>29</v>
-      </c>
-      <c r="J75" t="n">
-        <v>29</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="C76" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="D76" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="E76" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="F76" t="n">
-        <v>14811.0526</v>
-      </c>
-      <c r="G76" t="n">
-        <v>216431.0994661601</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J76" t="n">
-        <v>29</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="C77" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="D77" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="E77" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="F77" t="n">
-        <v>17201.54232329</v>
-      </c>
-      <c r="G77" t="n">
-        <v>216431.0994661601</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J77" t="n">
-        <v>29</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="C78" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="D78" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="E78" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="F78" t="n">
-        <v>10</v>
-      </c>
-      <c r="G78" t="n">
-        <v>216441.0994661601</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J78" t="n">
-        <v>29</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="C79" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="D79" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="E79" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="F79" t="n">
-        <v>41958.2968</v>
-      </c>
-      <c r="G79" t="n">
-        <v>216441.0994661601</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="J79" t="n">
-        <v>29</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="C80" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="D80" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="E80" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="F80" t="n">
-        <v>4241.5847</v>
-      </c>
-      <c r="G80" t="n">
-        <v>216441.0994661601</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="J80" t="n">
-        <v>29</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="C81" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="D81" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="E81" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="F81" t="n">
-        <v>28899.7293</v>
-      </c>
-      <c r="G81" t="n">
-        <v>216441.0994661601</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="J81" t="n">
-        <v>29</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="C82" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="D82" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E82" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="F82" t="n">
-        <v>37459.6938</v>
-      </c>
-      <c r="G82" t="n">
-        <v>253900.7932661601</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="J82" t="n">
-        <v>29</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="C83" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="D83" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E83" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="F83" t="n">
-        <v>15451.238</v>
-      </c>
-      <c r="G83" t="n">
-        <v>253900.7932661601</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="J83" t="n">
-        <v>29</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="C84" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="D84" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E84" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="F84" t="n">
-        <v>18032.49591055</v>
-      </c>
-      <c r="G84" t="n">
-        <v>253900.7932661601</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>29</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="C85" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="D85" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E85" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="F85" t="n">
-        <v>79403.19898945</v>
-      </c>
-      <c r="G85" t="n">
-        <v>253900.7932661601</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="J85" t="n">
-        <v>29</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="C86" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="D86" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E86" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="F86" t="n">
-        <v>176.13541055</v>
-      </c>
-      <c r="G86" t="n">
-        <v>253900.7932661601</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="J86" t="n">
-        <v>29</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="C87" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="D87" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="E87" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="F87" t="n">
-        <v>60810</v>
-      </c>
-      <c r="G87" t="n">
-        <v>314710.7932661601</v>
-      </c>
-      <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="J87" t="n">
-        <v>29</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="C88" t="n">
-        <v>30</v>
-      </c>
-      <c r="D88" t="n">
-        <v>30</v>
-      </c>
-      <c r="E88" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="F88" t="n">
-        <v>166928.2175</v>
-      </c>
-      <c r="G88" t="n">
-        <v>481639.0107661601</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J88" t="n">
-        <v>29</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3724,13 +3470,13 @@
         <v>579508.7276661601</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>30</v>
       </c>
       <c r="J89" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3765,13 +3511,11 @@
         <v>879330.7711291601</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="n">
-        <v>30.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3810,7 +3554,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3849,7 +3593,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3888,7 +3632,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3927,7 +3671,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3966,7 +3710,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4005,7 +3749,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4040,11 +3784,11 @@
         <v>2231232.45311601</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4083,7 +3827,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4122,7 +3866,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4161,7 +3905,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4196,11 +3940,11 @@
         <v>3186376.72121601</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4239,7 +3983,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4278,7 +4022,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4317,7 +4061,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4356,7 +4100,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4395,7 +4139,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4434,7 +4178,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4473,7 +4217,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4512,7 +4256,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4551,7 +4295,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4590,7 +4334,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4629,7 +4373,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4664,11 +4408,11 @@
         <v>3262944.91185419</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4703,11 +4447,11 @@
         <v>3453006.02945419</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4742,11 +4486,11 @@
         <v>3446668.67385419</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4781,21 +4525,23 @@
         <v>3494691.69425419</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>1.103843537414966</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1.076363636363636</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4820,17 +4566,11 @@
         <v>3681975.99205419</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>29</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4859,17 +4599,11 @@
         <v>3667145.46605419</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>29</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4898,17 +4632,11 @@
         <v>3667145.46605419</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>29</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4937,17 +4665,11 @@
         <v>3652421.96625419</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>29</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4976,17 +4698,11 @@
         <v>3657801.16625419</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>29</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5015,17 +4731,11 @@
         <v>3636028.78245419</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>29</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5054,17 +4764,11 @@
         <v>3636028.78245419</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>29</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5093,17 +4797,11 @@
         <v>3646617.49355419</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>29</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5132,17 +4830,11 @@
         <v>3646617.49355419</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>29</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5171,17 +4863,11 @@
         <v>3665289.21475419</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>29</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5210,17 +4896,11 @@
         <v>3600364.05075419</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>29</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5249,17 +4929,11 @@
         <v>3600364.05075419</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>29</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5288,17 +4962,11 @@
         <v>3600364.05075419</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>29</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5327,17 +4995,11 @@
         <v>3600364.05075419</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>29</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5366,17 +5028,11 @@
         <v>3623254.41025419</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>29</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5405,17 +5061,11 @@
         <v>3623553.90415419</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>29</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5444,17 +5094,11 @@
         <v>3692337.68575419</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>29</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5483,17 +5127,11 @@
         <v>3691985.83375419</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>29</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5522,17 +5160,11 @@
         <v>3594476.22595419</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>29</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5564,14 +5196,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>29</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5603,14 +5229,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>29</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5642,14 +5262,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>29</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5678,17 +5292,11 @@
         <v>3704645.320354191</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>29</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5720,14 +5328,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>29</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5756,17 +5358,11 @@
         <v>3694413.877854191</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>29</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5795,17 +5391,11 @@
         <v>3562172.290354191</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>29</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5834,17 +5424,11 @@
         <v>3562172.290354191</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>29</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5873,17 +5457,11 @@
         <v>3543588.711154191</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>29</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5912,17 +5490,11 @@
         <v>3583009.520954191</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>29</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5951,17 +5523,11 @@
         <v>3583009.520954191</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>29</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5990,17 +5556,11 @@
         <v>3560728.365454191</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>29</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6029,17 +5589,11 @@
         <v>3562731.053454191</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>29</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6068,17 +5622,11 @@
         <v>3562731.053454191</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>29</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6107,17 +5655,11 @@
         <v>3544609.761254191</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>29</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6146,17 +5688,11 @@
         <v>3544172.681954191</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>29</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6185,17 +5721,11 @@
         <v>3561499.039254191</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>29</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6224,17 +5754,11 @@
         <v>3428235.092554191</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>29</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6263,17 +5787,11 @@
         <v>3310489.020054191</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>29</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6302,17 +5820,11 @@
         <v>3310489.020054191</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>29</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6341,17 +5853,11 @@
         <v>3310489.020054191</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>29</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6380,17 +5886,11 @@
         <v>3310489.020054191</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>29</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6419,17 +5919,11 @@
         <v>3346026.616454191</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>29</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6458,17 +5952,11 @@
         <v>3349216.616454191</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>29</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6497,17 +5985,11 @@
         <v>3338015.182954191</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>29</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6536,17 +6018,11 @@
         <v>3320087.657454191</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>29</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6575,17 +6051,11 @@
         <v>3320187.657454191</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>29</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6617,14 +6087,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>29</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6653,17 +6117,11 @@
         <v>3306602.930754191</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>29</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6692,17 +6150,11 @@
         <v>3306615.930754191</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>29</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6731,17 +6183,11 @@
         <v>3320340.236754191</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>29</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6770,17 +6216,11 @@
         <v>3320340.236754191</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>29</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6812,14 +6252,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>29</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6851,14 +6285,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>29</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6890,14 +6318,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>29</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6929,14 +6351,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>29</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6968,14 +6384,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>29</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7007,14 +6417,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>29</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7046,14 +6450,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>29</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7085,14 +6483,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>29</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7124,14 +6516,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>29</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7163,14 +6549,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>29</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7202,14 +6582,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>29</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7241,14 +6615,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>29</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7280,14 +6648,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>29</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7316,17 +6678,11 @@
         <v>2887758.936254192</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>29</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7358,14 +6714,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>29</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7397,14 +6747,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>29</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7436,14 +6780,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>29</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7475,14 +6813,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>29</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7514,14 +6846,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>29</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7553,14 +6879,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>29</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7592,14 +6912,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>29</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7631,14 +6945,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>29</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7670,14 +6978,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>29</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7709,14 +7011,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>29</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7748,14 +7044,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>29</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7787,14 +7077,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>29</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7826,14 +7110,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>29</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7865,14 +7143,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>29</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7904,14 +7176,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>29</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7943,14 +7209,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>29</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7982,14 +7242,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>29</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8021,14 +7275,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>29</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8060,14 +7308,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>29</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8099,14 +7341,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>29</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8138,14 +7374,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>29</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8177,14 +7407,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>29</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8216,14 +7440,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>29</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8255,14 +7473,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>29</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8291,23 +7503,15 @@
         <v>3196833.088894771</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>29</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
-        <v>1.112241379310345</v>
-      </c>
-      <c r="M206" t="n">
-        <v>1.058181818181818</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8398,7 +7602,7 @@
         <v>3168975.184094771</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8431,7 +7635,7 @@
         <v>3111626.477994771</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8959,7 +8163,7 @@
         <v>2797938.34409477</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8992,7 +8196,7 @@
         <v>2797938.34409477</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -9025,7 +8229,7 @@
         <v>2837267.45439477</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -9619,7 +8823,7 @@
         <v>2848395.32748743</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9718,7 +8922,7 @@
         <v>2601019.44578743</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -10741,7 +9945,7 @@
         <v>2844233.78122118</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -11467,7 +10671,7 @@
         <v>2461543.83923627</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11500,7 +10704,7 @@
         <v>2478275.99543627</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11533,7 +10737,7 @@
         <v>2478275.99543627</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11566,7 +10770,7 @@
         <v>2478275.99543627</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11599,7 +10803,7 @@
         <v>2594130.45243627</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11632,7 +10836,7 @@
         <v>3155167.83989267</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11665,7 +10869,7 @@
         <v>3155167.83989267</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11698,7 +10902,7 @@
         <v>3155167.83989267</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11731,7 +10935,7 @@
         <v>3155167.83989267</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11764,7 +10968,7 @@
         <v>3154989.11649267</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11797,7 +11001,7 @@
         <v>3153972.77239267</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11830,7 +11034,7 @@
         <v>3109484.53059267</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11863,7 +11067,7 @@
         <v>3114885.61159267</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11896,7 +11100,7 @@
         <v>3112392.585392669</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11929,7 +11133,7 @@
         <v>3112392.585392669</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12028,7 +11232,7 @@
         <v>3028979.741392669</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12061,7 +11265,7 @@
         <v>3028979.741392669</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12094,7 +11298,7 @@
         <v>3028979.741392669</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12127,7 +11331,7 @@
         <v>2483207.737692669</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12160,7 +11364,7 @@
         <v>2589945.866392669</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12193,7 +11397,7 @@
         <v>2575719.951392669</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12226,7 +11430,7 @@
         <v>2673028.951392669</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12259,7 +11463,7 @@
         <v>2678028.951392669</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12325,7 +11529,7 @@
         <v>2707042.962892669</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -16560,6 +15764,6 @@
       <c r="M456" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest WAX.xlsx
+++ b/BackTest/2019-10-27 BackTest WAX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1276,10 +1276,14 @@
         <v>33268.04029999999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="J27" t="n">
+        <v>27.8</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
@@ -1309,11 +1313,19 @@
         <v>32859.80909999999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1354,19 @@
         <v>32859.80909999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="J29" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,10 +1395,14 @@
         <v>32859.80909999999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="J30" t="n">
+        <v>27.7</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
@@ -1408,11 +1432,19 @@
         <v>32859.80909999999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="J31" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1473,19 @@
         <v>32859.80909999999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="J32" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,10 +1514,14 @@
         <v>32859.80909999999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="J33" t="n">
+        <v>27.7</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
@@ -1507,11 +1551,19 @@
         <v>37859.80909999999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="J34" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1592,19 @@
         <v>41048.83619999999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="J35" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,10 +1633,14 @@
         <v>42408.83619999999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>28.1</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
@@ -1606,11 +1670,19 @@
         <v>46106.08329999999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1711,19 @@
         <v>56106.08329999999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="J38" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1752,19 @@
         <v>56106.08329999999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="J39" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1793,19 @@
         <v>68756.0833</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="J40" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1837,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +1876,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +1915,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +1954,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +1993,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2032,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2071,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2110,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2149,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2188,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2227,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2266,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2305,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2344,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2383,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2422,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2461,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2500,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2539,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2578,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2617,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2656,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2695,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2734,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2773,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2812,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,15 +2848,17 @@
         <v>224828.09438945</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
+        <v>28.1</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,17 +2887,15 @@
         <v>221211.53038945</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>29.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>29.2</v>
+        <v>28.1</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -2674,17 +2926,15 @@
         <v>221105.78838945</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>29.2</v>
+        <v>28.1</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L69" t="n">
@@ -2721,9 +2971,13 @@
         <v>29</v>
       </c>
       <c r="J70" t="n">
-        <v>29</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
+        <v>28.1</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2752,17 +3006,15 @@
         <v>216517.41228945</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>29.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>29</v>
+        <v>28.1</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -2799,11 +3051,11 @@
         <v>29.1</v>
       </c>
       <c r="J72" t="n">
-        <v>29</v>
+        <v>28.1</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L72" t="n">
@@ -2840,9 +3092,13 @@
         <v>29.2</v>
       </c>
       <c r="J73" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
+        <v>28.1</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2877,11 +3133,11 @@
         <v>29.2</v>
       </c>
       <c r="J74" t="n">
-        <v>29.2</v>
+        <v>28.1</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L74" t="n">
@@ -2918,11 +3174,11 @@
         <v>29</v>
       </c>
       <c r="J75" t="n">
-        <v>29.2</v>
+        <v>28.1</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -2953,15 +3209,17 @@
         <v>216431.0994661601</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
+        <v>28.1</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2990,17 +3248,15 @@
         <v>216431.0994661601</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>29.2</v>
+        <v>28.1</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L77" t="n">
@@ -3031,17 +3287,15 @@
         <v>216441.0994661601</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>29.2</v>
+        <v>28.1</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -3072,15 +3326,17 @@
         <v>216441.0994661601</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>29.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
+        <v>28.1</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3109,17 +3365,15 @@
         <v>216441.0994661601</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>29.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>29.3</v>
+        <v>28.1</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L80" t="n">
@@ -3150,17 +3404,15 @@
         <v>216441.0994661601</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>29.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>29.3</v>
+        <v>28.1</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L81" t="n">
@@ -3191,15 +3443,17 @@
         <v>253900.7932661601</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>29.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
+        <v>28.1</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3228,17 +3482,15 @@
         <v>253900.7932661601</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>29.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>29.3</v>
+        <v>28.1</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L83" t="n">
@@ -3269,17 +3521,15 @@
         <v>253900.7932661601</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>29.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>29.3</v>
+        <v>28.1</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -3316,9 +3566,13 @@
         <v>29.4</v>
       </c>
       <c r="J85" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
+        <v>28.1</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3353,11 +3607,11 @@
         <v>29.4</v>
       </c>
       <c r="J86" t="n">
-        <v>29.4</v>
+        <v>28.1</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L86" t="n">
@@ -3394,11 +3648,11 @@
         <v>29.4</v>
       </c>
       <c r="J87" t="n">
-        <v>29.4</v>
+        <v>28.1</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -3429,17 +3683,15 @@
         <v>481639.0107661601</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>29.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>29.4</v>
+        <v>28.1</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L88" t="n">
@@ -3470,13 +3722,11 @@
         <v>579508.7276661601</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>29.4</v>
+        <v>28.1</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3515,7 +3765,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>29.4</v>
+        <v>28.1</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3550,21 +3800,23 @@
         <v>1374471.01612916</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>29.4</v>
+        <v>28.1</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>1.140907473309609</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1.032727272727273</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3589,17 +3841,11 @@
         <v>1569942.71086616</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3628,17 +3874,11 @@
         <v>1971711.76281601</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3670,14 +3910,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3709,14 +3943,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3748,14 +3976,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3787,14 +4009,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3826,14 +4042,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3865,14 +4075,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3904,14 +4108,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3943,14 +4141,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3982,14 +4174,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4021,14 +4207,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4060,14 +4240,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4099,14 +4273,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4138,14 +4306,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4177,14 +4339,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4216,14 +4372,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4255,14 +4405,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4294,14 +4438,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4333,14 +4471,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4372,14 +4504,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4411,14 +4537,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4450,14 +4570,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4489,14 +4603,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4525,23 +4633,15 @@
         <v>3494691.69425419</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
-        <v>1.103843537414966</v>
-      </c>
-      <c r="M116" t="n">
-        <v>1.076363636363636</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4566,7 +4666,7 @@
         <v>3681975.99205419</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4632,7 +4732,7 @@
         <v>3667145.46605419</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4665,7 +4765,7 @@
         <v>3652421.96625419</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4698,7 +4798,7 @@
         <v>3657801.16625419</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4731,7 +4831,7 @@
         <v>3636028.78245419</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4764,7 +4864,7 @@
         <v>3636028.78245419</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4797,7 +4897,7 @@
         <v>3646617.49355419</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4830,7 +4930,7 @@
         <v>3646617.49355419</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4863,7 +4963,7 @@
         <v>3665289.21475419</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4896,7 +4996,7 @@
         <v>3600364.05075419</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4929,7 +5029,7 @@
         <v>3600364.05075419</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4962,7 +5062,7 @@
         <v>3600364.05075419</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4995,7 +5095,7 @@
         <v>3600364.05075419</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5028,7 +5128,7 @@
         <v>3623254.41025419</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5061,7 +5161,7 @@
         <v>3623553.90415419</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5094,7 +5194,7 @@
         <v>3692337.68575419</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5127,7 +5227,7 @@
         <v>3691985.83375419</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5160,7 +5260,7 @@
         <v>3594476.22595419</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5292,7 +5392,7 @@
         <v>3704645.320354191</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5358,7 +5458,7 @@
         <v>3694413.877854191</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5391,7 +5491,7 @@
         <v>3562172.290354191</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5424,7 +5524,7 @@
         <v>3562172.290354191</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5457,7 +5557,7 @@
         <v>3543588.711154191</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5490,7 +5590,7 @@
         <v>3583009.520954191</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5523,7 +5623,7 @@
         <v>3583009.520954191</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5556,7 +5656,7 @@
         <v>3560728.365454191</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5589,7 +5689,7 @@
         <v>3562731.053454191</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5622,7 +5722,7 @@
         <v>3562731.053454191</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5655,7 +5755,7 @@
         <v>3544609.761254191</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5688,7 +5788,7 @@
         <v>3544172.681954191</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5721,7 +5821,7 @@
         <v>3561499.039254191</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5754,7 +5854,7 @@
         <v>3428235.092554191</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5787,7 +5887,7 @@
         <v>3310489.020054191</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5820,7 +5920,7 @@
         <v>3310489.020054191</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5853,7 +5953,7 @@
         <v>3310489.020054191</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5886,7 +5986,7 @@
         <v>3310489.020054191</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5919,7 +6019,7 @@
         <v>3346026.616454191</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5952,7 +6052,7 @@
         <v>3349216.616454191</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5985,7 +6085,7 @@
         <v>3338015.182954191</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6018,7 +6118,7 @@
         <v>3320087.657454191</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6051,7 +6151,7 @@
         <v>3320187.657454191</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6117,7 +6217,7 @@
         <v>3306602.930754191</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6150,7 +6250,7 @@
         <v>3306615.930754191</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6183,7 +6283,7 @@
         <v>3320340.236754191</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6216,7 +6316,7 @@
         <v>3320340.236754191</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6678,7 +6778,7 @@
         <v>2887758.936254192</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -8163,7 +8263,7 @@
         <v>2797938.34409477</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8196,7 +8296,7 @@
         <v>2797938.34409477</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8229,7 +8329,7 @@
         <v>2837267.45439477</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8823,7 +8923,7 @@
         <v>2848395.32748743</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8922,7 +9022,7 @@
         <v>2601019.44578743</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -11232,7 +11332,7 @@
         <v>3028979.741392669</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11265,7 +11365,7 @@
         <v>3028979.741392669</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11298,7 +11398,7 @@
         <v>3028979.741392669</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11331,7 +11431,7 @@
         <v>2483207.737692669</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11364,7 +11464,7 @@
         <v>2589945.866392669</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11397,7 +11497,7 @@
         <v>2575719.951392669</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11430,7 +11530,7 @@
         <v>2673028.951392669</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11463,7 +11563,7 @@
         <v>2678028.951392669</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11529,7 +11629,7 @@
         <v>2707042.962892669</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -15764,6 +15864,6 @@
       <c r="M456" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest WAX.xlsx
+++ b/BackTest/2019-10-27 BackTest WAX.xlsx
@@ -1276,14 +1276,10 @@
         <v>33268.04029999999</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="J27" t="n">
-        <v>27.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
@@ -1313,335 +1309,285 @@
         <v>32859.80909999999</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D29" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E29" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F29" t="n">
+        <v>8548.1734</v>
+      </c>
+      <c r="G29" t="n">
+        <v>32859.80909999999</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C30" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D30" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E30" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F30" t="n">
+        <v>6411.1301</v>
+      </c>
+      <c r="G30" t="n">
+        <v>32859.80909999999</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C31" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D31" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E31" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F31" t="n">
+        <v>19233.3904</v>
+      </c>
+      <c r="G31" t="n">
+        <v>32859.80909999999</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C32" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D32" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E32" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G32" t="n">
+        <v>32859.80909999999</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C33" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D33" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E33" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F33" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G33" t="n">
+        <v>32859.80909999999</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
         <v>27.8</v>
       </c>
-      <c r="J28" t="n">
+      <c r="C34" t="n">
         <v>27.8</v>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="D34" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E34" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F34" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G34" t="n">
+        <v>37859.80909999999</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3189.0271</v>
+      </c>
+      <c r="G35" t="n">
+        <v>41048.83619999999</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="J35" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="C36" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="E36" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1360</v>
+      </c>
+      <c r="G36" t="n">
+        <v>42408.83619999999</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C29" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D29" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E29" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F29" t="n">
-        <v>8548.1734</v>
-      </c>
-      <c r="G29" t="n">
-        <v>32859.80909999999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="J29" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C30" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D30" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E30" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F30" t="n">
-        <v>6411.1301</v>
-      </c>
-      <c r="G30" t="n">
-        <v>32859.80909999999</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="J30" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C31" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D31" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E31" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F31" t="n">
-        <v>19233.3904</v>
-      </c>
-      <c r="G31" t="n">
-        <v>32859.80909999999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="J31" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C32" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D32" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E32" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F32" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G32" t="n">
-        <v>32859.80909999999</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="J32" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C33" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D33" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E33" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F33" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G33" t="n">
-        <v>32859.80909999999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="J33" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C34" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D34" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E34" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F34" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G34" t="n">
-        <v>37859.80909999999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="J34" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="C35" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="D35" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="E35" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="F35" t="n">
-        <v>3189.0271</v>
-      </c>
-      <c r="G35" t="n">
-        <v>41048.83619999999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="J35" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="C36" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="D36" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="E36" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1360</v>
-      </c>
-      <c r="G36" t="n">
-        <v>42408.83619999999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="J36" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1670,13 +1616,11 @@
         <v>46106.08329999999</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>28.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>28.1</v>
+        <v>27.8</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1711,1154 +1655,996 @@
         <v>56106.08329999999</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
         <v>28.3</v>
       </c>
-      <c r="J38" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="K38" t="inlineStr">
+      <c r="C39" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="D39" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="E39" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="F39" t="n">
+        <v>13628.5794</v>
+      </c>
+      <c r="G39" t="n">
+        <v>56106.08329999999</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C40" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D40" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E40" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F40" t="n">
+        <v>12650</v>
+      </c>
+      <c r="G40" t="n">
+        <v>68756.0833</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C41" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D41" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E41" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2097.3867</v>
+      </c>
+      <c r="G41" t="n">
+        <v>70853.47</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C42" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D42" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E42" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F42" t="n">
+        <v>369.6133</v>
+      </c>
+      <c r="G42" t="n">
+        <v>70853.47</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="C43" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="D43" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="E43" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1084.7875</v>
+      </c>
+      <c r="G43" t="n">
+        <v>71938.25750000001</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>29</v>
+      </c>
+      <c r="C44" t="n">
+        <v>29</v>
+      </c>
+      <c r="D44" t="n">
+        <v>29</v>
+      </c>
+      <c r="E44" t="n">
+        <v>29</v>
+      </c>
+      <c r="F44" t="n">
+        <v>4491.8965</v>
+      </c>
+      <c r="G44" t="n">
+        <v>76430.15400000001</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>29</v>
+      </c>
+      <c r="C45" t="n">
+        <v>29</v>
+      </c>
+      <c r="D45" t="n">
+        <v>29</v>
+      </c>
+      <c r="E45" t="n">
+        <v>29</v>
+      </c>
+      <c r="F45" t="n">
+        <v>14190.9925</v>
+      </c>
+      <c r="G45" t="n">
+        <v>76430.15400000001</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>29</v>
+      </c>
+      <c r="C46" t="n">
+        <v>29</v>
+      </c>
+      <c r="D46" t="n">
+        <v>29</v>
+      </c>
+      <c r="E46" t="n">
+        <v>29</v>
+      </c>
+      <c r="F46" t="n">
+        <v>22627.4902</v>
+      </c>
+      <c r="G46" t="n">
+        <v>76430.15400000001</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>29</v>
+      </c>
+      <c r="C47" t="n">
+        <v>29</v>
+      </c>
+      <c r="D47" t="n">
+        <v>29</v>
+      </c>
+      <c r="E47" t="n">
+        <v>29</v>
+      </c>
+      <c r="F47" t="n">
+        <v>72169.64629999999</v>
+      </c>
+      <c r="G47" t="n">
+        <v>76430.15400000001</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>29</v>
+      </c>
+      <c r="C48" t="n">
+        <v>29</v>
+      </c>
+      <c r="D48" t="n">
+        <v>29</v>
+      </c>
+      <c r="E48" t="n">
+        <v>29</v>
+      </c>
+      <c r="F48" t="n">
+        <v>6376.535</v>
+      </c>
+      <c r="G48" t="n">
+        <v>76430.15400000001</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>11106.9553</v>
+      </c>
+      <c r="G49" t="n">
+        <v>87537.10930000001</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>29</v>
+      </c>
+      <c r="F50" t="n">
+        <v>14911.1859</v>
+      </c>
+      <c r="G50" t="n">
+        <v>87537.10930000001</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C51" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D51" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E51" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1103</v>
+      </c>
+      <c r="G51" t="n">
+        <v>88640.10930000001</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C52" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D52" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E52" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1629.0017</v>
+      </c>
+      <c r="G52" t="n">
+        <v>88640.10930000001</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C53" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D53" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E53" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F53" t="n">
+        <v>5014.7781</v>
+      </c>
+      <c r="G53" t="n">
+        <v>88640.10930000001</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C54" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D54" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E54" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F54" t="n">
+        <v>5823.6774</v>
+      </c>
+      <c r="G54" t="n">
+        <v>88640.10930000001</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C55" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D55" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E55" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F55" t="n">
+        <v>79579.33440000001</v>
+      </c>
+      <c r="G55" t="n">
+        <v>88640.10930000001</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="E56" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="G56" t="n">
+        <v>88620.15930000001</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="E57" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F57" t="n">
+        <v>4900.6341</v>
+      </c>
+      <c r="G57" t="n">
+        <v>88620.15930000001</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>29</v>
+      </c>
+      <c r="C58" t="n">
+        <v>29</v>
+      </c>
+      <c r="D58" t="n">
+        <v>29</v>
+      </c>
+      <c r="E58" t="n">
+        <v>29</v>
+      </c>
+      <c r="F58" t="n">
+        <v>3210</v>
+      </c>
+      <c r="G58" t="n">
+        <v>85410.15930000001</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="C59" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="D59" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="E59" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2274.5342</v>
+      </c>
+      <c r="G59" t="n">
+        <v>83135.62510000002</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C60" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="D60" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E60" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="F60" t="n">
+        <v>38002.4813</v>
+      </c>
+      <c r="G60" t="n">
+        <v>83135.62510000002</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C61" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="D61" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E61" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F61" t="n">
+        <v>724.4178000000001</v>
+      </c>
+      <c r="G61" t="n">
+        <v>83860.04290000001</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="J61" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C62" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D62" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="E62" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F62" t="n">
+        <v>48616.5807</v>
+      </c>
+      <c r="G62" t="n">
+        <v>132476.6236</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K62" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="C39" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="D39" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="E39" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="F39" t="n">
-        <v>13628.5794</v>
-      </c>
-      <c r="G39" t="n">
-        <v>56106.08329999999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="J39" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="K39" t="inlineStr">
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C63" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="E63" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F63" t="n">
+        <v>30735.2646</v>
+      </c>
+      <c r="G63" t="n">
+        <v>163211.8882</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="C64" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="E64" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F64" t="n">
+        <v>200</v>
+      </c>
+      <c r="G64" t="n">
+        <v>163211.8882</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C65" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D65" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E65" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F65" t="n">
+        <v>5602.0819</v>
+      </c>
+      <c r="G65" t="n">
+        <v>157609.8063</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C66" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="D66" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E66" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2810</v>
+      </c>
+      <c r="G66" t="n">
+        <v>154799.8063</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J66" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C67" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D67" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E67" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F67" t="n">
+        <v>70028.28808945</v>
+      </c>
+      <c r="G67" t="n">
+        <v>224828.09438945</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="K67" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="C40" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="D40" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="E40" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="F40" t="n">
-        <v>12650</v>
-      </c>
-      <c r="G40" t="n">
-        <v>68756.0833</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="J40" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="C41" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="D41" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="E41" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="F41" t="n">
-        <v>2097.3867</v>
-      </c>
-      <c r="G41" t="n">
-        <v>70853.47</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="C42" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="D42" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="E42" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="F42" t="n">
-        <v>369.6133</v>
-      </c>
-      <c r="G42" t="n">
-        <v>70853.47</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="C43" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="D43" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="E43" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1084.7875</v>
-      </c>
-      <c r="G43" t="n">
-        <v>71938.25750000001</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>29</v>
-      </c>
-      <c r="C44" t="n">
-        <v>29</v>
-      </c>
-      <c r="D44" t="n">
-        <v>29</v>
-      </c>
-      <c r="E44" t="n">
-        <v>29</v>
-      </c>
-      <c r="F44" t="n">
-        <v>4491.8965</v>
-      </c>
-      <c r="G44" t="n">
-        <v>76430.15400000001</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>29</v>
-      </c>
-      <c r="C45" t="n">
-        <v>29</v>
-      </c>
-      <c r="D45" t="n">
-        <v>29</v>
-      </c>
-      <c r="E45" t="n">
-        <v>29</v>
-      </c>
-      <c r="F45" t="n">
-        <v>14190.9925</v>
-      </c>
-      <c r="G45" t="n">
-        <v>76430.15400000001</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>29</v>
-      </c>
-      <c r="C46" t="n">
-        <v>29</v>
-      </c>
-      <c r="D46" t="n">
-        <v>29</v>
-      </c>
-      <c r="E46" t="n">
-        <v>29</v>
-      </c>
-      <c r="F46" t="n">
-        <v>22627.4902</v>
-      </c>
-      <c r="G46" t="n">
-        <v>76430.15400000001</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>29</v>
-      </c>
-      <c r="C47" t="n">
-        <v>29</v>
-      </c>
-      <c r="D47" t="n">
-        <v>29</v>
-      </c>
-      <c r="E47" t="n">
-        <v>29</v>
-      </c>
-      <c r="F47" t="n">
-        <v>72169.64629999999</v>
-      </c>
-      <c r="G47" t="n">
-        <v>76430.15400000001</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>29</v>
-      </c>
-      <c r="C48" t="n">
-        <v>29</v>
-      </c>
-      <c r="D48" t="n">
-        <v>29</v>
-      </c>
-      <c r="E48" t="n">
-        <v>29</v>
-      </c>
-      <c r="F48" t="n">
-        <v>6376.535</v>
-      </c>
-      <c r="G48" t="n">
-        <v>76430.15400000001</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="C49" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="D49" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="E49" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="F49" t="n">
-        <v>11106.9553</v>
-      </c>
-      <c r="G49" t="n">
-        <v>87537.10930000001</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="C50" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="D50" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="E50" t="n">
-        <v>29</v>
-      </c>
-      <c r="F50" t="n">
-        <v>14911.1859</v>
-      </c>
-      <c r="G50" t="n">
-        <v>87537.10930000001</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="C51" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="D51" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="E51" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1103</v>
-      </c>
-      <c r="G51" t="n">
-        <v>88640.10930000001</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="C52" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="D52" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="E52" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1629.0017</v>
-      </c>
-      <c r="G52" t="n">
-        <v>88640.10930000001</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="C53" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="D53" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="E53" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="F53" t="n">
-        <v>5014.7781</v>
-      </c>
-      <c r="G53" t="n">
-        <v>88640.10930000001</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="C54" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="D54" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="E54" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="F54" t="n">
-        <v>5823.6774</v>
-      </c>
-      <c r="G54" t="n">
-        <v>88640.10930000001</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="C55" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="D55" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="E55" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="F55" t="n">
-        <v>79579.33440000001</v>
-      </c>
-      <c r="G55" t="n">
-        <v>88640.10930000001</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="C56" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="D56" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="E56" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="F56" t="n">
-        <v>19.95</v>
-      </c>
-      <c r="G56" t="n">
-        <v>88620.15930000001</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="C57" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="D57" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="E57" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="F57" t="n">
-        <v>4900.6341</v>
-      </c>
-      <c r="G57" t="n">
-        <v>88620.15930000001</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>29</v>
-      </c>
-      <c r="C58" t="n">
-        <v>29</v>
-      </c>
-      <c r="D58" t="n">
-        <v>29</v>
-      </c>
-      <c r="E58" t="n">
-        <v>29</v>
-      </c>
-      <c r="F58" t="n">
-        <v>3210</v>
-      </c>
-      <c r="G58" t="n">
-        <v>85410.15930000001</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="C59" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="D59" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="E59" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2274.5342</v>
-      </c>
-      <c r="G59" t="n">
-        <v>83135.62510000002</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="C60" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="D60" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="E60" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="F60" t="n">
-        <v>38002.4813</v>
-      </c>
-      <c r="G60" t="n">
-        <v>83135.62510000002</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="C61" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="D61" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="E61" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="F61" t="n">
-        <v>724.4178000000001</v>
-      </c>
-      <c r="G61" t="n">
-        <v>83860.04290000001</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="C62" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="D62" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="E62" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="F62" t="n">
-        <v>48616.5807</v>
-      </c>
-      <c r="G62" t="n">
-        <v>132476.6236</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="C63" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="D63" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="E63" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="F63" t="n">
-        <v>30735.2646</v>
-      </c>
-      <c r="G63" t="n">
-        <v>163211.8882</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="C64" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="D64" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="E64" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="F64" t="n">
-        <v>200</v>
-      </c>
-      <c r="G64" t="n">
-        <v>163211.8882</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="C65" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="D65" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="E65" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="F65" t="n">
-        <v>5602.0819</v>
-      </c>
-      <c r="G65" t="n">
-        <v>157609.8063</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="C66" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="D66" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="E66" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="F66" t="n">
-        <v>2810</v>
-      </c>
-      <c r="G66" t="n">
-        <v>154799.8063</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="C67" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="D67" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E67" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="F67" t="n">
-        <v>70028.28808945</v>
-      </c>
-      <c r="G67" t="n">
-        <v>224828.09438945</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2887,11 +2673,13 @@
         <v>221211.53038945</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>29.4</v>
+      </c>
       <c r="J68" t="n">
-        <v>28.1</v>
+        <v>29.3</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2926,11 +2714,13 @@
         <v>221105.78838945</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J69" t="n">
-        <v>28.1</v>
+        <v>29.3</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2971,7 +2761,7 @@
         <v>29</v>
       </c>
       <c r="J70" t="n">
-        <v>28.1</v>
+        <v>29.3</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3006,11 +2796,13 @@
         <v>216517.41228945</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>29.3</v>
+      </c>
       <c r="J71" t="n">
-        <v>28.1</v>
+        <v>29.3</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3051,7 +2843,7 @@
         <v>29.1</v>
       </c>
       <c r="J72" t="n">
-        <v>28.1</v>
+        <v>29.3</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3092,7 +2884,7 @@
         <v>29.2</v>
       </c>
       <c r="J73" t="n">
-        <v>28.1</v>
+        <v>29.3</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3133,7 +2925,7 @@
         <v>29.2</v>
       </c>
       <c r="J74" t="n">
-        <v>28.1</v>
+        <v>29.3</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3174,7 +2966,7 @@
         <v>29</v>
       </c>
       <c r="J75" t="n">
-        <v>28.1</v>
+        <v>29.3</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3209,11 +3001,13 @@
         <v>216431.0994661601</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J76" t="n">
-        <v>28.1</v>
+        <v>29.3</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3248,11 +3042,13 @@
         <v>216431.0994661601</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J77" t="n">
-        <v>28.1</v>
+        <v>29.3</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3287,11 +3083,13 @@
         <v>216441.0994661601</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J78" t="n">
-        <v>28.1</v>
+        <v>29.3</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3326,11 +3124,13 @@
         <v>216441.0994661601</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>29.3</v>
+      </c>
       <c r="J79" t="n">
-        <v>28.1</v>
+        <v>29.3</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3365,11 +3165,13 @@
         <v>216441.0994661601</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>29.3</v>
+      </c>
       <c r="J80" t="n">
-        <v>28.1</v>
+        <v>29.3</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3404,11 +3206,13 @@
         <v>216441.0994661601</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>29.3</v>
+      </c>
       <c r="J81" t="n">
-        <v>28.1</v>
+        <v>29.3</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3443,11 +3247,13 @@
         <v>253900.7932661601</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>29.3</v>
+      </c>
       <c r="J82" t="n">
-        <v>28.1</v>
+        <v>29.3</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3482,11 +3288,13 @@
         <v>253900.7932661601</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>29.4</v>
+      </c>
       <c r="J83" t="n">
-        <v>28.1</v>
+        <v>29.3</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3521,11 +3329,13 @@
         <v>253900.7932661601</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>29.4</v>
+      </c>
       <c r="J84" t="n">
-        <v>28.1</v>
+        <v>29.3</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3566,7 +3376,7 @@
         <v>29.4</v>
       </c>
       <c r="J85" t="n">
-        <v>28.1</v>
+        <v>29.3</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3607,7 +3417,7 @@
         <v>29.4</v>
       </c>
       <c r="J86" t="n">
-        <v>28.1</v>
+        <v>29.3</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3648,7 +3458,7 @@
         <v>29.4</v>
       </c>
       <c r="J87" t="n">
-        <v>28.1</v>
+        <v>29.3</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3687,7 +3497,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>28.1</v>
+        <v>29.3</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3726,7 +3536,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>28.1</v>
+        <v>29.3</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3765,7 +3575,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>28.1</v>
+        <v>29.3</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3800,452 +3610,530 @@
         <v>1374471.01612916</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>28.1</v>
+        <v>29.3</v>
       </c>
       <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="C92" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="D92" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="E92" t="n">
+        <v>32</v>
+      </c>
+      <c r="F92" t="n">
+        <v>195471.694737</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1569942.71086616</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="C93" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="D93" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="E93" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="F93" t="n">
+        <v>401769.05194985</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1971711.76281601</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="C94" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="D94" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E94" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="F94" t="n">
+        <v>435050.6288</v>
+      </c>
+      <c r="G94" t="n">
+        <v>2406762.39161601</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="C95" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="D95" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="E95" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="F95" t="n">
+        <v>15052.292</v>
+      </c>
+      <c r="G95" t="n">
+        <v>2391710.09961601</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="C96" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="D96" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="E96" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="F96" t="n">
+        <v>31675.2587</v>
+      </c>
+      <c r="G96" t="n">
+        <v>2360034.84091601</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="C97" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="D97" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="E97" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="F97" t="n">
+        <v>128802.3878</v>
+      </c>
+      <c r="G97" t="n">
+        <v>2231232.45311601</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="C98" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="D98" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="E98" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="F98" t="n">
+        <v>318426.2179</v>
+      </c>
+      <c r="G98" t="n">
+        <v>2549658.67101601</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="C99" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="D99" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="E99" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="F99" t="n">
+        <v>353431.1904</v>
+      </c>
+      <c r="G99" t="n">
+        <v>2903089.86141601</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="C100" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="D100" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="E100" t="n">
+        <v>32</v>
+      </c>
+      <c r="F100" t="n">
+        <v>283286.8598</v>
+      </c>
+      <c r="G100" t="n">
+        <v>3186376.72121601</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="C101" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="D101" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="E101" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="F101" t="n">
+        <v>250271.266</v>
+      </c>
+      <c r="G101" t="n">
+        <v>3186376.72121601</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="C102" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="D102" t="n">
+        <v>33</v>
+      </c>
+      <c r="E102" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="F102" t="n">
+        <v>87674.01153818</v>
+      </c>
+      <c r="G102" t="n">
+        <v>3274050.73275419</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="C103" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="D103" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="E103" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="F103" t="n">
+        <v>10629.6636</v>
+      </c>
+      <c r="G103" t="n">
+        <v>3263421.06915419</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="C104" t="n">
+        <v>33</v>
+      </c>
+      <c r="D104" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="E104" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F104" t="n">
+        <v>368294.6524</v>
+      </c>
+      <c r="G104" t="n">
+        <v>3631715.72155419</v>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="K104" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L91" t="n">
-        <v>1.140907473309609</v>
-      </c>
-      <c r="M91" t="n">
-        <v>1.032727272727273</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="C92" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="D92" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="E92" t="n">
-        <v>32</v>
-      </c>
-      <c r="F92" t="n">
-        <v>195471.694737</v>
-      </c>
-      <c r="G92" t="n">
-        <v>1569942.71086616</v>
-      </c>
-      <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="C93" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="D93" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="E93" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="F93" t="n">
-        <v>401769.05194985</v>
-      </c>
-      <c r="G93" t="n">
-        <v>1971711.76281601</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="C94" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="D94" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="E94" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="F94" t="n">
-        <v>435050.6288</v>
-      </c>
-      <c r="G94" t="n">
-        <v>2406762.39161601</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="C95" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="D95" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="E95" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="F95" t="n">
-        <v>15052.292</v>
-      </c>
-      <c r="G95" t="n">
-        <v>2391710.09961601</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="C96" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="D96" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="E96" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="F96" t="n">
-        <v>31675.2587</v>
-      </c>
-      <c r="G96" t="n">
-        <v>2360034.84091601</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="C97" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="D97" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="E97" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="F97" t="n">
-        <v>128802.3878</v>
-      </c>
-      <c r="G97" t="n">
-        <v>2231232.45311601</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="C98" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="D98" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="E98" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="F98" t="n">
-        <v>318426.2179</v>
-      </c>
-      <c r="G98" t="n">
-        <v>2549658.67101601</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="C99" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="D99" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="E99" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="F99" t="n">
-        <v>353431.1904</v>
-      </c>
-      <c r="G99" t="n">
-        <v>2903089.86141601</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="C100" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="D100" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="E100" t="n">
-        <v>32</v>
-      </c>
-      <c r="F100" t="n">
-        <v>283286.8598</v>
-      </c>
-      <c r="G100" t="n">
-        <v>3186376.72121601</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="C101" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="D101" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="E101" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="F101" t="n">
-        <v>250271.266</v>
-      </c>
-      <c r="G101" t="n">
-        <v>3186376.72121601</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="C102" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="D102" t="n">
-        <v>33</v>
-      </c>
-      <c r="E102" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="F102" t="n">
-        <v>87674.01153818</v>
-      </c>
-      <c r="G102" t="n">
-        <v>3274050.73275419</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="C103" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="D103" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="E103" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="F103" t="n">
-        <v>10629.6636</v>
-      </c>
-      <c r="G103" t="n">
-        <v>3263421.06915419</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="C104" t="n">
-        <v>33</v>
-      </c>
-      <c r="D104" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="E104" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F104" t="n">
-        <v>368294.6524</v>
-      </c>
-      <c r="G104" t="n">
-        <v>3631715.72155419</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>1.121279863481229</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1.076363636363636</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4270,7 +4158,7 @@
         <v>3603763.20755419</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4303,7 +4191,7 @@
         <v>3701363.31495419</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4336,7 +4224,7 @@
         <v>3545812.88115419</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4369,7 +4257,7 @@
         <v>3435883.87375419</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4402,7 +4290,7 @@
         <v>3399329.32845419</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4435,7 +4323,7 @@
         <v>3293181.40015419</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4567,7 +4455,7 @@
         <v>3453006.02945419</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4600,7 +4488,7 @@
         <v>3446668.67385419</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4633,7 +4521,7 @@
         <v>3494691.69425419</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4666,7 +4554,7 @@
         <v>3681975.99205419</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4699,7 +4587,7 @@
         <v>3667145.46605419</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4732,7 +4620,7 @@
         <v>3667145.46605419</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4765,7 +4653,7 @@
         <v>3652421.96625419</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4798,7 +4686,7 @@
         <v>3657801.16625419</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4831,7 +4719,7 @@
         <v>3636028.78245419</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4864,7 +4752,7 @@
         <v>3636028.78245419</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4897,7 +4785,7 @@
         <v>3646617.49355419</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4930,7 +4818,7 @@
         <v>3646617.49355419</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4963,7 +4851,7 @@
         <v>3665289.21475419</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4996,7 +4884,7 @@
         <v>3600364.05075419</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5029,7 +4917,7 @@
         <v>3600364.05075419</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5062,7 +4950,7 @@
         <v>3600364.05075419</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5095,7 +4983,7 @@
         <v>3600364.05075419</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
